--- a/biology/Botanique/Parmeliaceae/Parmeliaceae.xlsx
+++ b/biology/Botanique/Parmeliaceae/Parmeliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Parmeliaceae (Parméliacées, du grec parma, « petit bouclier rond ») sont une famille de champignons lichénisés. Avec 2 000 espèces environ réparties en 89 genres il s'agit de la plus importante famille de lichens, aux thalles essentiellement foliacés et fruticuleux. Parmi les formes les plus connues, elle comporte les parmélies, les usnées et la mousse d'Islande.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ahtiana Goward
